--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_3.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1775812.357054453</v>
+        <v>-1752145.2813921</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.18025491</v>
+        <v>16811344.37236569</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484448</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11011676.18093542</v>
+        <v>11039241.5315181</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>277.8651293944201</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>87.11460073377718</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>315.3535549221802</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>104.5356805921066</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>231.6283553771967</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -877,13 +877,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>224.2827742304765</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -905,13 +905,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>325.1239910349844</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -953,7 +953,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>92.21207065488562</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>261.0033197050666</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58.10117488633706</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>221.3053114256417</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1142,13 +1142,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>79.5854046174441</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>19.16056802173566</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>83.73328541485492</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1531,10 +1531,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>3.42339212608458</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>132.9029306024367</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1607,7 +1607,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884131</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1619,7 +1619,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.383853062969</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>131.9969996527466</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>209.9324537163696</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2008,16 +2008,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>119.8634463900535</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>73.01514676193457</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2050,7 +2050,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2090,7 +2090,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948845</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2132,7 +2132,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>48.25041423584346</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
         <v>217.8665548556918</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2494,7 +2494,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,10 +2533,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>142.4359347523201</v>
       </c>
       <c r="W25" t="n">
-        <v>93.33789293904182</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2722,16 +2722,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>63.5163311932785</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2956,7 +2956,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>26.41040541581631</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3029,25 +3029,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>69.44607969759689</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
@@ -3095,7 +3095,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C34" t="n">
         <v>154.6003840628599</v>
@@ -3196,7 +3196,7 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G34" t="n">
         <v>147.6996518856832</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934458</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T35" t="n">
         <v>201.6308445169444</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C37" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D37" t="n">
         <v>147.9835025317452</v>
@@ -3433,16 +3433,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G37" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934483</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3484,13 +3484,13 @@
         <v>267.8502427095265</v>
       </c>
       <c r="W37" t="n">
-        <v>253.0704300308231</v>
+        <v>253.070430030824</v>
       </c>
       <c r="X37" t="n">
         <v>226.7021267811743</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3679,7 +3679,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.96793274293448</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3749,7 +3749,7 @@
         <v>413.2012870545404</v>
       </c>
       <c r="F41" t="n">
-        <v>407.3530449561381</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G41" t="n">
         <v>381.1481427242214</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934469</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>405.8008644413117</v>
       </c>
       <c r="C44" t="n">
         <v>417.5253377496635</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778.0338588108082</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C2" t="n">
-        <v>778.0338588108082</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>746.1644780256568</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>716.430137224356</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7582893512044</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,22 +4331,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="L2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="M2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="N2" t="n">
         <v>267.8706684926505</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>687.9235674375537</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X2" t="n">
-        <v>1204.333429295716</v>
+        <v>352.4826129674469</v>
       </c>
       <c r="Y2" t="n">
-        <v>1204.333429295716</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="3">
@@ -4404,28 +4404,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0602407069692</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N3" t="n">
-        <v>900.1131396518725</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
-        <v>1320.166038596776</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777.3658326657497</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="C4" t="n">
-        <v>604.8041211489747</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8041211489747</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N4" t="n">
-        <v>815.3347072823371</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1570.174012228106</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1570.174012228106</v>
+        <v>1463.215394345875</v>
       </c>
       <c r="U4" t="n">
-        <v>1291.741011481211</v>
+        <v>1184.78239359898</v>
       </c>
       <c r="V4" t="n">
-        <v>1004.785503351641</v>
+        <v>897.8268854694109</v>
       </c>
       <c r="W4" t="n">
-        <v>1004.785503351641</v>
+        <v>625.8004810557024</v>
       </c>
       <c r="X4" t="n">
-        <v>1004.785503351641</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="Y4" t="n">
-        <v>777.3658326657497</v>
+        <v>380.4087263891149</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>771.4315001967746</v>
+        <v>979.1393982133468</v>
       </c>
       <c r="C5" t="n">
-        <v>737.3294314206018</v>
+        <v>540.9969253967702</v>
       </c>
       <c r="D5" t="n">
-        <v>705.4600506354504</v>
+        <v>509.1275446116187</v>
       </c>
       <c r="E5" t="n">
-        <v>675.7257098341497</v>
+        <v>479.3932038103179</v>
       </c>
       <c r="F5" t="n">
-        <v>651.8986842837616</v>
+        <v>51.52577421952567</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>51.52577421952567</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>51.52577421952567</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666567</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>51.10898484666567</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>51.10898484666567</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>51.10898484666567</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>51.10898484666567</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>574.8490166666568</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1207.322704144144</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1839.796391621632</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2386.295177580227</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.449242333284</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2471.797368517121</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2251.730141390159</v>
       </c>
       <c r="U5" t="n">
-        <v>1217.893900270473</v>
+        <v>1992.507838707176</v>
       </c>
       <c r="V5" t="n">
-        <v>1217.893900270473</v>
+        <v>1629.890888641002</v>
       </c>
       <c r="W5" t="n">
-        <v>813.0384456815061</v>
+        <v>1225.035434052036</v>
       </c>
       <c r="X5" t="n">
-        <v>797.9363863012209</v>
+        <v>1209.93337467175</v>
       </c>
       <c r="Y5" t="n">
-        <v>793.6906666412783</v>
+        <v>1205.687655011808</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>557.2807298379585</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.8242686746007</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.733979821154</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.6135651481077</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>178.2297267642693</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.8446370304532</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666567</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>51.10898484666567</v>
       </c>
       <c r="J6" t="n">
-        <v>319.8519551513677</v>
+        <v>51.10898484666567</v>
       </c>
       <c r="K6" t="n">
-        <v>319.8519551513677</v>
+        <v>51.10898484666567</v>
       </c>
       <c r="L6" t="n">
-        <v>319.8519551513677</v>
+        <v>51.10898484666567</v>
       </c>
       <c r="M6" t="n">
-        <v>739.9048540962709</v>
+        <v>51.10898484666567</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>51.10898484666567</v>
       </c>
       <c r="O6" t="n">
-        <v>1580.010651986078</v>
+        <v>423.9633421215718</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1597.175968231135</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1714.348746325475</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.893308773858</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.714665104459</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1344.378118104428</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1145.260600166427</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.9378458996209</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>805.0704101385008</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.5846309177216</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>688.7058834404251</v>
+        <v>648.283469848096</v>
       </c>
       <c r="C7" t="n">
-        <v>516.14417192365</v>
+        <v>475.721758331321</v>
       </c>
       <c r="D7" t="n">
-        <v>516.14417192365</v>
+        <v>309.8437655328437</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>309.8437655328437</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>309.8437655328437</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>144.2524905586714</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666567</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666567</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>51.10898484666567</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>300.1277721663095</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>718.3376539342705</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1177.821521115183</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1620.080324272828</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2039.749573498609</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2387.256467468951</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.449242333284</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.449242333284</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2396.20787363128</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2150.328427209735</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1871.895426462841</v>
       </c>
       <c r="V7" t="n">
-        <v>1433.543713206613</v>
+        <v>1584.939918333271</v>
       </c>
       <c r="W7" t="n">
-        <v>1161.517308792904</v>
+        <v>1312.913513919563</v>
       </c>
       <c r="X7" t="n">
-        <v>916.1255541263167</v>
+        <v>1067.521759252975</v>
       </c>
       <c r="Y7" t="n">
-        <v>688.7058834404251</v>
+        <v>840.1020885670832</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>547.9560900011804</v>
+        <v>1456.941072251152</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1233.400353639393</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1201.530972854241</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>1294.102365436318</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>1294.102365436318</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1294.102365436318</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1393.464329137293</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1393.464329137293</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1030.847379071119</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>1030.032328522557</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>1014.930269142272</v>
+        <v>1887.486362396002</v>
       </c>
       <c r="Y8" t="n">
-        <v>606.6441454419249</v>
+        <v>1883.24064273606</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>739.9048540962709</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>685.9021756729128</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>685.9021756729128</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>488.5262235414597</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>318.768219792197</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>269.215608100497</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>705.2562847857771</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>705.2562847857771</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>685.9021756729128</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>685.9021756729128</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2506.387139754336</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2068.24466693776</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1632.334882112204</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1198.560137270499</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>770.6927076797068</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>369.2948763029707</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>80.16472174618694</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>515.4194091991048</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1349.769701157283</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2199.746545905644</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M11" t="n">
-        <v>2199.746545905644</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N11" t="n">
-        <v>2199.746545905644</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3179.92621247595</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4008.236087309347</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4008.236087309347</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309347</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4008.236087309347</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3788.168860182385</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3703.589784005764</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3340.972833939591</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3340.972833939591</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3340.972833939591</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2932.686710239244</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374798</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.880005574122</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206753</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.669302047629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637906</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299745</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>106.2283949066446</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>430.7867198728568</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>1085.492766498581</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>1085.492766498581</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>1085.492766498581</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N12" t="n">
-        <v>1085.492766498581</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O12" t="n">
-        <v>1085.492766498581</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.770402003981</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991421</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380222</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172429</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>900.804929383481</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C13" t="n">
-        <v>728.2432178667059</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D13" t="n">
-        <v>562.3652250682286</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>562.3652250682286</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>385.6581710299848</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>220.0668960558124</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>80.16472174618694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108768</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820124</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499734</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2696.824331648987</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2537.582962946983</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2291.703516525438</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.270515778544</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.315007648974</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.288603235266</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1320.04321878836</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>1092.623548102468</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651791</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
         <v>2090.757574835212</v>
@@ -5264,64 +5264,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236976</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.865819681876</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.925785934735</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M14" t="n">
-        <v>2758.053686176685</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N14" t="n">
-        <v>2758.053686176685</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3738.233352746991</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4566.543227580388</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.042013538982</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136699</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5346,31 +5346,31 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5464,22 +5464,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2404.930957497405</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.975449367836</v>
+        <v>1801.895829456619</v>
       </c>
       <c r="W16" t="n">
-        <v>1845.949044954127</v>
+        <v>1529.869425042911</v>
       </c>
       <c r="X16" t="n">
-        <v>1600.55729028754</v>
+        <v>1284.477670376323</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F17" t="n">
         <v>793.2056155771595</v>
@@ -5513,28 +5513,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M17" t="n">
-        <v>2758.053686176683</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N17" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
         <v>5113.04201353898</v>
@@ -5552,7 +5552,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
@@ -5589,25 +5589,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E19" t="n">
-        <v>451.897152078511</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F19" t="n">
-        <v>330.8229638057297</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057297</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
         <v>190.9207894961043</v>
@@ -5698,25 +5698,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,34 +5750,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
         <v>4809.322912595856</v>
@@ -5789,13 +5789,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.396843814754</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>968.8351322979789</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>802.9571394995016</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E22" t="n">
-        <v>633.1991357502388</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F22" t="n">
-        <v>456.4920817119951</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G22" t="n">
-        <v>290.9008067378227</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
-        <v>150.9986324281973</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2451.623182457406</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2173.190181710511</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>1886.234673580942</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1614.208269167233</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1368.816514500646</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1141.396843814754</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W25" t="n">
-        <v>1654.13042623514</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X25" t="n">
-        <v>1408.738671568553</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y25" t="n">
-        <v>1181.319000882661</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6206,34 +6206,34 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1068.769857140658</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>896.2081456238831</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>730.3301528254058</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>560.572149076143</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1260.588475859645</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G29" t="n">
         <v>391.8077842004234</v>
@@ -6467,28 +6467,28 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
         <v>4809.322912595856</v>
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2460.592196945462</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2038.849431541761</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1619.339354129082</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167953</v>
+        <v>1201.964316700253</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771606</v>
+        <v>790.4965945223366</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004245</v>
+        <v>389.0987631456005</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>99.96860858881672</v>
       </c>
       <c r="I32" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881672</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>535.2232960417346</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>1369.573587999912</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2444.633554252772</v>
       </c>
       <c r="M32" t="n">
-        <v>2758.053686176684</v>
+        <v>2444.633554252772</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176684</v>
+        <v>3454.467703895788</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>3454.467703895788</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580387</v>
+        <v>4282.777578729184</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4829.276364687779</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>4998.430429440836</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>4928.282874190738</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4724.615354476653</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4465.39305179367</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4102.776101727496</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3697.920647138529</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3278.77818371784</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2886.891767430369</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>606.1403535801095</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>499.6838924167518</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>404.5936035633051</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>310.4731888902588</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>227.0893505064204</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>141.7042607726042</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881672</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>99.96860858881672</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>99.96860858881672</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>99.96860858881672</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>99.96860858881672</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>99.96860858881672</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>99.96860858881672</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>285.5734868620121</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1646.035591973286</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>1763.208370067626</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>1699.752932516009</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>1569.57428884661</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>1393.237741846579</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>1194.120223908578</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>1008.797469641772</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>853.9300338806519</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>727.4442546598726</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1066.521048992528</v>
+        <v>1064.228817310565</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886288</v>
+        <v>908.0668132066658</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030275</v>
+        <v>758.5885278210646</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666408</v>
+        <v>605.2302314846779</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412731</v>
+        <v>444.9228848593104</v>
       </c>
       <c r="G34" t="n">
-        <v>298.023548979977</v>
+        <v>295.7313172980143</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832276</v>
+        <v>172.2288504012649</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881672</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708294</v>
+        <v>202.6216469888665</v>
       </c>
       <c r="K34" t="n">
-        <v>495.745686477325</v>
+        <v>493.453454795362</v>
       </c>
       <c r="L34" t="n">
-        <v>930.0289214806459</v>
+        <v>927.736689798683</v>
       </c>
       <c r="M34" t="n">
-        <v>1405.586141896919</v>
+        <v>1403.293910214956</v>
       </c>
       <c r="N34" t="n">
-        <v>1863.918298289923</v>
+        <v>1861.62606660796</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751065</v>
+        <v>2297.368669069102</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956767</v>
+        <v>2660.948916274804</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056459</v>
+        <v>2845.215044374496</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174706</v>
+        <v>2840.196930492743</v>
       </c>
       <c r="S34" t="n">
-        <v>2699.647500885579</v>
+        <v>2697.355269203616</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.16776187691</v>
+        <v>2467.875530194947</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542891</v>
+        <v>2205.842236860929</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826198</v>
+        <v>1935.286436144235</v>
       </c>
       <c r="W34" t="n">
-        <v>1681.951970825366</v>
+        <v>1679.659739143403</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571654</v>
+        <v>1450.667691889691</v>
       </c>
       <c r="Y34" t="n">
-        <v>1241.939960298638</v>
+        <v>1239.647728616676</v>
       </c>
     </row>
     <row r="35">
@@ -6929,40 +6929,40 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J35" t="n">
-        <v>97.56670367581786</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>931.9169956339958</v>
+        <v>1133.581508556539</v>
       </c>
       <c r="L35" t="n">
-        <v>2006.976961886855</v>
+        <v>2208.641474809398</v>
       </c>
       <c r="M35" t="n">
-        <v>3164.024797097406</v>
+        <v>2208.641474809398</v>
       </c>
       <c r="N35" t="n">
-        <v>3164.024797097406</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="O35" t="n">
-        <v>4144.204463667712</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P35" t="n">
-        <v>4878.335183790893</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q35" t="n">
-        <v>4878.335183790893</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T35" t="n">
         <v>4607.415497673521</v>
@@ -6977,7 +6977,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y35" t="n">
         <v>2835.290740278742</v>
@@ -7008,28 +7008,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I36" t="n">
-        <v>123.6303768362755</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J36" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K36" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L36" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M36" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="N36" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="O36" t="n">
-        <v>1102.894748428211</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="P36" t="n">
         <v>1102.894748428211</v>
@@ -7072,16 +7072,16 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F37" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G37" t="n">
         <v>293.3294123850158</v>
@@ -7090,7 +7090,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J37" t="n">
         <v>200.2197420758676</v>
@@ -7111,13 +7111,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S37" t="n">
         <v>2694.953364290617</v>
@@ -7126,13 +7126,13 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V37" t="n">
         <v>1932.884531231236</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
         <v>1448.265786976693</v>
@@ -7166,58 +7166,58 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581783</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>540.3167323207282</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>1615.376698573588</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>2772.424533784138</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>3898.155517220585</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>4878.335183790891</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P38" t="n">
-        <v>4878.335183790891</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790891</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="39">
@@ -7245,22 +7245,22 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362754</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024877</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K39" t="n">
-        <v>1102.894748428211</v>
+        <v>778.3002237461951</v>
       </c>
       <c r="L39" t="n">
-        <v>1102.894748428211</v>
+        <v>778.3002237461951</v>
       </c>
       <c r="M39" t="n">
-        <v>1102.894748428211</v>
+        <v>778.3002237461951</v>
       </c>
       <c r="N39" t="n">
         <v>1102.894748428211</v>
@@ -7315,19 +7315,19 @@
         <v>756.1866229080664</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716798</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463121</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850159</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882665</v>
+        <v>169.8269454882666</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7342,7 +7342,7 @@
         <v>1400.892005301957</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O40" t="n">
         <v>2294.966764156103</v>
@@ -7357,19 +7357,19 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
         <v>1448.265786976693</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206712</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803011</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.138034390332</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961503</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.295274783585</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>122.084990212129</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>122.084990212129</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>1197.144956464988</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O41" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P41" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q41" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673522</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403415</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750117</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574027</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566214</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278743</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="N42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="O42" t="n">
-        <v>448.1887018024878</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7543,58 +7543,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E43" t="n">
         <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850156</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758674</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823628</v>
+        <v>491.0515498823624</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856838</v>
+        <v>925.3347848856835</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1400.892005301956</v>
       </c>
       <c r="N43" t="n">
         <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2294.966764156102</v>
       </c>
       <c r="P43" t="n">
         <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
         <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T43" t="n">
         <v>2465.473625281949</v>
@@ -7625,7 +7625,7 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
         <v>1584.13803439033</v>
@@ -7640,37 +7640,37 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M44" t="n">
-        <v>2442.231649339773</v>
+        <v>1254.614538886369</v>
       </c>
       <c r="N44" t="n">
-        <v>2442.231649339773</v>
+        <v>2380.345522322816</v>
       </c>
       <c r="O44" t="n">
-        <v>3422.411315910079</v>
+        <v>3360.525188893122</v>
       </c>
       <c r="P44" t="n">
-        <v>4250.721190743476</v>
+        <v>4188.835063726518</v>
       </c>
       <c r="Q44" t="n">
-        <v>4797.21997670207</v>
+        <v>4735.333849685113</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
         <v>4811.083017387606</v>
@@ -7688,10 +7688,10 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L45" t="n">
-        <v>1052.109752486922</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M45" t="n">
-        <v>1052.109752486922</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="N45" t="n">
-        <v>1052.109752486922</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="O45" t="n">
-        <v>1052.109752486922</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="P45" t="n">
-        <v>1760.806465154627</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q45" t="n">
-        <v>1760.806465154627</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R45" t="n">
         <v>1760.806465154627</v>
@@ -7801,16 +7801,16 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758674</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823628</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856838</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
@@ -7822,7 +7822,7 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
         <v>2842.813139461497</v>
@@ -7840,10 +7840,10 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
@@ -7979,25 +7979,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P3" t="n">
-        <v>262.4693064538403</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,22 +8134,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>529.0303351717083</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>638.8623105833209</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>638.8623105833208</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,10 +8289,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,19 +8301,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>376.6205629039455</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>638.8623105833209</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,25 +8371,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>251.5341286057008</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,10 +8526,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201044</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,22 +8611,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>858.5624694427888</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8708,10 +8708,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M14" t="n">
-        <v>314.270606305</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>314.2706063049986</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,13 +9407,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>404.4043982844105</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9474,16 +9474,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>127.53932913075</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>531.8762684426488</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10115,13 +10115,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352456</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10355,13 +10355,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1020.034494588906</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10370,7 +10370,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>606.8284014422256</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>741.5461819426073</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>447.2222511564752</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>901.152332228356</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>327.873257254562</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>24.76594599627389</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497274</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,10 +11133,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497274</v>
+        <v>144.4457920260402</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P45" t="n">
-        <v>715.8552653209142</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>258.8884025713045</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>145.7236259004642</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>88.8497075411629</v>
       </c>
     </row>
     <row r="3">
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>172.8967942412984</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>110.034906517485</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>111.4236523045827</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>74.15349933190427</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>55.07653710780788</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>90.92021546249603</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>39.52293549722795</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>141.6500182959537</v>
       </c>
       <c r="W25" t="n">
-        <v>175.9682474305296</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>111.4236523045828</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>141.6500182959538</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>863148.674416718</v>
+        <v>720234.5527420182</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>940971.7869838924</v>
+        <v>956374.9708148233</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>940971.7869838924</v>
+        <v>958431.8898646267</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>818409.9514665359</v>
+        <v>976558.5656880353</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>976558.5656880358</v>
+        <v>976558.5656880353</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>976558.5656880353</v>
+        <v>976558.5656880356</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>992118.8730744045</v>
+        <v>990538.460368185</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36726.43201116088</v>
+        <v>30327.2922346818</v>
       </c>
       <c r="C2" t="n">
         <v>40211.04899178063</v>
@@ -26320,19 +26320,19 @@
         <v>40211.04899178063</v>
       </c>
       <c r="E2" t="n">
-        <v>33115.17903382231</v>
+        <v>39514.31881030142</v>
       </c>
       <c r="F2" t="n">
-        <v>39514.31881030143</v>
+        <v>39514.3188103014</v>
       </c>
       <c r="G2" t="n">
-        <v>39514.31881030142</v>
+        <v>39514.3188103014</v>
       </c>
       <c r="H2" t="n">
-        <v>39514.31881030142</v>
+        <v>39514.3188103014</v>
       </c>
       <c r="I2" t="n">
-        <v>39514.31881030141</v>
+        <v>39514.3188103014</v>
       </c>
       <c r="J2" t="n">
         <v>39514.3188103014</v>
@@ -26341,19 +26341,19 @@
         <v>39514.31881030141</v>
       </c>
       <c r="L2" t="n">
-        <v>40211.04899178068</v>
+        <v>40211.04899178063</v>
       </c>
       <c r="M2" t="n">
-        <v>40211.04899178068</v>
+        <v>40211.04899178063</v>
       </c>
       <c r="N2" t="n">
+        <v>40211.04899178063</v>
+      </c>
+      <c r="O2" t="n">
         <v>40211.04899178066</v>
       </c>
-      <c r="O2" t="n">
-        <v>40211.04899178063</v>
-      </c>
       <c r="P2" t="n">
-        <v>40211.04899178069</v>
+        <v>40211.04899178064</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>69320.13118372016</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>8900.449092101646</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725248</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471814</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449901</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>55222.53889197391</v>
       </c>
       <c r="L3" t="n">
         <v>12988.5682709979</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978838</v>
+        <v>144718.1170387505</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341138</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185574.3908571705</v>
+        <v>136875.4802388638</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>178390.1777075791</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.119437218</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>79513.37073726681</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="F4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="G4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="H4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="I4" t="n">
         <v>94878.44464875289</v>
@@ -26442,22 +26442,22 @@
         <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
-        <v>100220.8024653861</v>
+        <v>103678.8250359888</v>
       </c>
       <c r="M4" t="n">
         <v>107302.2988178706</v>
       </c>
       <c r="N4" t="n">
+        <v>107302.2988178706</v>
+      </c>
+      <c r="O4" t="n">
+        <v>107302.2988178706</v>
+      </c>
+      <c r="P4" t="n">
         <v>107302.2988178705</v>
-      </c>
-      <c r="O4" t="n">
-        <v>107302.2988178705</v>
-      </c>
-      <c r="P4" t="n">
-        <v>107302.2988178706</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72470.4284834659</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710207</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
-        <v>79083.15853826067</v>
+        <v>77341.06245996886</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-350464.0476429419</v>
+        <v>-308493.7353596842</v>
       </c>
       <c r="C6" t="n">
-        <v>-231306.8585826597</v>
+        <v>-279969.6883829845</v>
       </c>
       <c r="D6" t="n">
-        <v>-231306.8585826597</v>
+        <v>-216791.4599285218</v>
       </c>
       <c r="E6" t="n">
-        <v>-279830.7503030714</v>
+        <v>-315460.6980046764</v>
       </c>
       <c r="F6" t="n">
-        <v>-212221.2701489622</v>
+        <v>-133105.5887836266</v>
       </c>
       <c r="G6" t="n">
-        <v>-133082.3644442438</v>
+        <v>-133105.5887836266</v>
       </c>
       <c r="H6" t="n">
-        <v>-133082.364444244</v>
+        <v>-133105.5887836266</v>
       </c>
       <c r="I6" t="n">
-        <v>-133082.364444244</v>
+        <v>-133105.5887836266</v>
       </c>
       <c r="J6" t="n">
-        <v>-244096.8297892342</v>
+        <v>-244120.0541286168</v>
       </c>
       <c r="K6" t="n">
-        <v>-133082.364444244</v>
+        <v>-188328.1276756006</v>
       </c>
       <c r="L6" t="n">
-        <v>-152081.480282864</v>
+        <v>-153797.4067751749</v>
       </c>
       <c r="M6" t="n">
-        <v>-271965.2859500634</v>
+        <v>-287324.9815909301</v>
       </c>
       <c r="N6" t="n">
-        <v>-210256.0648255909</v>
+        <v>-142606.8645521796</v>
       </c>
       <c r="O6" t="n">
         <v>-142606.8645521796</v>
@@ -26716,13 +26716,13 @@
         <v>16.23571033874738</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
         <v>16.23571033874736</v>
@@ -26790,16 +26790,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>638.8623105833209</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827337</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26817,7 +26817,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="L4" t="n">
-        <v>1278.260503384745</v>
+        <v>1249.607607360209</v>
       </c>
       <c r="M4" t="n">
         <v>1219.583795947723</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>214.5664530632165</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>28.65289602453609</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072323</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574089</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201042</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>214.5664530632165</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702102</v>
+        <v>580.7214853644022</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574084</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>214.5664530632165</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>28.65289602453609</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072323</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574089</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>174.8726455171064</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>327.8364380527052</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>53.11327442287666</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>11.79229658013259</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>197.7538005495822</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27625,13 +27625,13 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>72.25986202798435</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>46.2910819116436</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27822,16 +27822,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>23.08263334320725</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>363.9353998937216</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>212.4557366627692</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27862,13 +27862,13 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>223.777269098186</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29749,16 +29749,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,10 +29797,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>13.36927538040447</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="33">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874623</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="44">
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874697</v>
       </c>
       <c r="C44" t="n">
         <v>16.23571033874736</v>
@@ -30891,7 +30891,7 @@
         <v>16.23571033874736</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874759</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P46" t="n">
         <v>16.23571033874736</v>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,7 +34772,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P3" t="n">
-        <v>262.4693064538403</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,22 +34854,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>529.0303351717083</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>638.8623105833209</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>638.8623105833208</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,10 +35009,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>376.6205629039455</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>638.8623105833209</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>251.5341286057008</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,10 +35246,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201044</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>858.5624694427888</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M14" t="n">
-        <v>314.270606305</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.8366918850629</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>314.2706063049986</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>404.4043982844105</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>127.53932913075</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>531.8762684426488</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36835,13 +36835,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352456</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37069,19 +37069,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1020.034494588906</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
@@ -37090,7 +37090,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37233,13 +37233,13 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M34" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N34" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P34" t="n">
         <v>367.2527749552546</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>606.8284014422256</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>741.5461819426073</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>447.2222511564752</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>901.152332228356</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>327.873257254562</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37710,16 +37710,16 @@
         <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>24.76594599627389</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497274</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.6899377778278</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>293.7695028348433</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467889</v>
+        <v>438.669934346789</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
@@ -37956,7 +37956,7 @@
         <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497274</v>
+        <v>144.4457920260402</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>964.1848977889939</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,16 +38108,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P45" t="n">
-        <v>715.8552653209142</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778278</v>
       </c>
       <c r="K46" t="n">
         <v>293.7695028348439</v>
@@ -38187,13 +38187,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
